--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -124,16 +124,16 @@
     <t xml:space="preserve">跑酷游戏最大飞行速度</t>
   </si>
   <si>
-    <t xml:space="preserve">RG_Acceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跑酷游戏加速速率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RG_Deceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跑酷游戏减速速率</t>
+    <t xml:space="preserve">RG_DEFAULT_Acceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跑酷游戏默认加速速率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG_DEFAULT_Deceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跑酷游戏默认减速速率</t>
   </si>
   <si>
     <t xml:space="preserve">RG_Time</t>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t xml:space="preserve">跑酷返回出口处位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG_FOV_VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跑酷Fov变化系数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG_SPEEDUP_TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跑酷通过加速圈加速时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG_UP_Acceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跑酷通过加速圈加速度</t>
   </si>
 </sst>
 </file>
@@ -412,10 +430,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.91796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.05"/>
@@ -644,7 +662,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
@@ -676,7 +694,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -932,7 +950,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -964,7 +982,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1075,13 +1093,21 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1100,12 +1126,20 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" s="4" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1123,13 +1157,21 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="n">
+        <v>5000</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>

--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -202,10 +202,16 @@
     <t xml:space="preserve">跑酷起点区域前位置</t>
   </si>
   <si>
+    <t xml:space="preserve">53|136591|2900</t>
+  </si>
+  <si>
     <t xml:space="preserve">RG_Back_Loc</t>
   </si>
   <si>
     <t xml:space="preserve">跑酷返回出口处位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-721|136766|2900</t>
   </si>
   <si>
     <t xml:space="preserve">RG_FOV_VALUE</t>
@@ -427,13 +433,13 @@
   </sheetPr>
   <dimension ref="A1:V203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.05"/>
@@ -1050,7 +1056,9 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1068,11 +1076,11 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -1080,7 +1088,9 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1098,11 +1108,11 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="n">
@@ -1130,11 +1140,11 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="n">
@@ -1162,11 +1172,11 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="n">

--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t xml:space="preserve">跑酷通过加速圈加速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG_Streaking_Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跑酷拖尾特效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|0|0||1|1|1||0|0|0</t>
   </si>
 </sst>
 </file>
@@ -433,13 +442,13 @@
   </sheetPr>
   <dimension ref="A1:V203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.05"/>
@@ -448,7 +457,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="38.88"/>
   </cols>
@@ -1199,15 +1208,27 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>4399</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>

--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -1497,7 +1497,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85" defaultRowHeight="16.5"/>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>

--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t xml:space="preserve">0|0|0||1|1|1||0|0|0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG_TIME_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跑酷加时圈冷却时间</t>
   </si>
 </sst>
 </file>
@@ -442,13 +448,13 @@
   </sheetPr>
   <dimension ref="A1:V203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.05"/>
@@ -1244,13 +1250,21 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="n">
+        <v>6</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>

--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t xml:space="preserve">跑酷加时圈冷却</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG_SPEED_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跑酷加速圈冷却</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83203125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.05"/>
@@ -1282,13 +1288,21 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="n">
+        <v>6</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>

--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -212,7 +212,7 @@
     <t>8855.69|94653.50|1753.76</t>
   </si>
   <si>
-    <t>53|136591|2900</t>
+    <t>9000.84|94675.87|1823.51</t>
   </si>
   <si>
     <t>RG_Back_Loc</t>
@@ -224,7 +224,7 @@
     <t>13641.69|94653.50|1753.76</t>
   </si>
   <si>
-    <t>-721|136766|2900</t>
+    <t>13427.84|94675.87|1823.51</t>
   </si>
   <si>
     <t>RG_FOV_VALUE</t>
@@ -1515,7 +1515,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8166666666667" defaultRowHeight="16.5"/>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>

--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -224,7 +224,7 @@
     <t>13641.69|94653.50|1753.76</t>
   </si>
   <si>
-    <t>13427.84|94675.87|1823.51</t>
+    <t>12714.94|94634.66|1958.03</t>
   </si>
   <si>
     <t>RG_FOV_VALUE</t>
@@ -1512,10 +1512,10 @@
   <sheetPr/>
   <dimension ref="A1:V203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8166666666667" defaultRowHeight="16.5"/>

--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -212,7 +212,7 @@
     <t>8855.69|94653.50|1753.76</t>
   </si>
   <si>
-    <t>9000.84|94675.87|1823.51</t>
+    <t>12714.94|94634.66|1958.03</t>
   </si>
   <si>
     <t>RG_Back_Loc</t>
@@ -224,7 +224,7 @@
     <t>13641.69|94653.50|1753.76</t>
   </si>
   <si>
-    <t>12714.94|94634.66|1958.03</t>
+    <t>13774.98|94678.81|1790</t>
   </si>
   <si>
     <t>RG_FOV_VALUE</t>
@@ -1515,7 +1515,7 @@
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8166666666667" defaultRowHeight="16.5"/>

--- a/Excels/Global_全局表.xlsx
+++ b/Excels/Global_全局表.xlsx
@@ -1512,10 +1512,10 @@
   <sheetPr/>
   <dimension ref="A1:V203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8166666666667" defaultRowHeight="16.5"/>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
